--- a/menu-info.xlsx
+++ b/menu-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITPUB_PC\육군체계프로젝트(작업폴더)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233C09A6-A936-4FC0-B4A8-5206F304D102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5AB97-94A6-48F8-977F-C622FD27B4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="4410" windowWidth="28755" windowHeight="15345" xr2:uid="{F165C86F-E5C7-416C-9E00-B6B5D021BBCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F165C86F-E5C7-416C-9E00-B6B5D021BBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="화면명" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>화면명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,22 @@
   </si>
   <si>
     <t>sublayout08.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_horizontal.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로형 테이블 가이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로형 테이블 가이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_vertical.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD10AB1-F6E1-487F-BD49-64B628AFA398}">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -776,6 +792,28 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
